--- a/Modules/Oje.Section.InsuranceContractBaseData/wwwroot/InsuranceContractBaseDataExcelExample/InsuranceContractUserChilds.xlsx
+++ b/Modules/Oje.Section.InsuranceContractBaseData/wwwroot/InsuranceContractBaseDataExcelExample/InsuranceContractUserChilds.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Oje\Modules\Oje.Section.InsuranceContractBaseData\wwwroot\InsuranceContractBaseDataExcelExample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254F185-0B0B-4CB4-A4EB-EDCD8EBC5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C859713-77A6-4DF1-9378-477C8AB4844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,74 +27,558 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>آیدا کاظم پور</author>
+    <author>HSI</author>
+    <author>Meysam</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>وارد کردن این فیلد اجباری میباشد
+*****************</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>وارد کردن این فیلد اجباری میباشد
+*****************</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>وارد کردن این فیلد اجباری میباشد
+*******************
+نامشخص = 0
+مرد = 1
+زن = 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>وارد کردن این فیلد اجباری میباشد
+*******************</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+مطابق فرمت ذیل:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+کد ملی بدون خط فاصله و خط تیره و بصورت کامل(10 رقم) وارد شود.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>وارد کردن این فیلد اجباری میباشد
+*******************</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+مطابق فرمت ذیل :
+1363/06/30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>مطابق فرمت ذیل:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+شماره شناسنامه بدون خط فاصله و خط تیره و کاراکتر غیر عددی وارد شود.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>وارد کردن این فیلد اجباری میباشد
+*******************</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+نامشخص : 0
+تحت تکفل : 1
+غیر تحت تکفل : 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">نصبت بیمه شده
+اجباری
+0 = نامشخص
+1 = اصلی
+2 = همسر
+3 = فرزند پسر
+4 = فرزند دختر
+5 = پدر
+6 = مادر
+7 = سایر
+8 = برادر
+9 = خواهر
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{F669E744-C3C8-4A3F-970E-103D05984788}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>لطفا یا کد ملی یا کد التریکی بیمه شده اصلی را وارد کنید</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="2" shapeId="0" xr:uid="{97FF305D-3318-4BED-821F-D5145CC6A58E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>لطفا یا کد ملی یا کد التریکی بیمه شده اصلی را وارد کنید</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>تاریخ تولد</t>
-  </si>
-  <si>
-    <t>تست</t>
-  </si>
-  <si>
-    <t>تست زاده</t>
-  </si>
-  <si>
-    <t>4342340518</t>
-  </si>
-  <si>
-    <t>1365/01/01</t>
-  </si>
-  <si>
-    <t>شناسه قرارداد*</t>
-  </si>
-  <si>
-    <t>نام *</t>
-  </si>
-  <si>
-    <t>نام خانوادگی *</t>
-  </si>
-  <si>
-    <t>کد ملی *</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+  <si>
+    <t>نام</t>
+  </si>
+  <si>
+    <t>نام خانوادگی</t>
+  </si>
+  <si>
+    <t>جنسیت</t>
+  </si>
+  <si>
+    <t>کد ملی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاریخ تولد </t>
   </si>
   <si>
     <t>نام پدر</t>
   </si>
   <si>
+    <t>محل صدور</t>
+  </si>
+  <si>
     <t>شماره شناسنامه</t>
   </si>
   <si>
-    <t>وضعیت تاهل</t>
-  </si>
-  <si>
-    <t>0 = namoshakhas, 1 = mojarad, 2 = motahel, 3 = motalegheh, 4 = moayal</t>
-  </si>
-  <si>
-    <t>شناسه نوع بیمه</t>
-  </si>
-  <si>
-    <t>شماره دفترچه بیمه پایه</t>
+    <t>کد نسبت</t>
+  </si>
+  <si>
+    <t>وضعیت تکفل</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t>کشاورزپور</t>
+  </si>
+  <si>
+    <t>2572610612</t>
+  </si>
+  <si>
+    <t>1366/06/08</t>
+  </si>
+  <si>
+    <t>ابراهیم</t>
+  </si>
+  <si>
+    <t>7894</t>
+  </si>
+  <si>
+    <t>مرجان</t>
+  </si>
+  <si>
+    <t>شیخ نیا</t>
+  </si>
+  <si>
+    <t>2280042312</t>
+  </si>
+  <si>
+    <t>1368/01/30</t>
+  </si>
+  <si>
+    <t>غلامرضا</t>
+  </si>
+  <si>
+    <t>مهرداد</t>
+  </si>
+  <si>
+    <t>فیضی</t>
+  </si>
+  <si>
+    <t>0055254292</t>
+  </si>
+  <si>
+    <t>1350/06/30</t>
+  </si>
+  <si>
+    <t>فتح الله</t>
+  </si>
+  <si>
+    <t>تهران</t>
+  </si>
+  <si>
+    <t>6208</t>
+  </si>
+  <si>
+    <t>حسین</t>
+  </si>
+  <si>
+    <t>0250697432</t>
+  </si>
+  <si>
+    <t>1385/10/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حمید </t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسن زاده </t>
+  </si>
+  <si>
+    <t>0386678561</t>
+  </si>
+  <si>
+    <t>1366/02/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رحمت اله </t>
+  </si>
+  <si>
+    <t>4332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سعیده </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سعیدی </t>
+  </si>
+  <si>
+    <t>1583277013</t>
+  </si>
+  <si>
+    <t>1367/06/28</t>
+  </si>
+  <si>
+    <t>رحیم</t>
+  </si>
+  <si>
+    <t>11041</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مینا </t>
+  </si>
+  <si>
+    <t>میرزائی</t>
+  </si>
+  <si>
+    <t>1210226820</t>
+  </si>
+  <si>
+    <t>1384/11/13</t>
+  </si>
+  <si>
+    <t>حمید</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>کد ملی بیمه شده اصلی</t>
+  </si>
+  <si>
+    <t>آذربایجان شرقی</t>
+  </si>
+  <si>
+    <t>آذربایجان غربی</t>
+  </si>
+  <si>
+    <t>اردبیل</t>
+  </si>
+  <si>
+    <t>البرز</t>
+  </si>
+  <si>
+    <t>اصفهان</t>
+  </si>
+  <si>
+    <t>ایلام</t>
+  </si>
+  <si>
+    <t>بوشهر</t>
+  </si>
+  <si>
+    <t>چهارمحال و بختیاری</t>
+  </si>
+  <si>
+    <t>خراسان جنوبی</t>
+  </si>
+  <si>
+    <t>خراسان رضوی</t>
+  </si>
+  <si>
+    <t>خراسان شمالی</t>
+  </si>
+  <si>
+    <t>خوزستان</t>
+  </si>
+  <si>
+    <t>زنجان</t>
+  </si>
+  <si>
+    <t>سمنان</t>
+  </si>
+  <si>
+    <t>سیستان و بلوچستان</t>
+  </si>
+  <si>
+    <t>فارس</t>
+  </si>
+  <si>
+    <t>قزوین</t>
+  </si>
+  <si>
+    <t>قم</t>
+  </si>
+  <si>
+    <t>کردستان</t>
+  </si>
+  <si>
+    <t>کرمان</t>
+  </si>
+  <si>
+    <t>کرمانشاه</t>
+  </si>
+  <si>
+    <t>کهکیلویه و بویراحمد</t>
+  </si>
+  <si>
+    <t>گلستان</t>
+  </si>
+  <si>
+    <t>گیلان</t>
+  </si>
+  <si>
+    <t>لرستان</t>
+  </si>
+  <si>
+    <t>مازندران</t>
+  </si>
+  <si>
+    <t>مرکزی</t>
+  </si>
+  <si>
+    <t>هرمزگان</t>
+  </si>
+  <si>
+    <t>همدان</t>
+  </si>
+  <si>
+    <t>یزد</t>
   </si>
   <si>
     <t>کد الکتریکی بیمه شده اصلی</t>
   </si>
   <si>
-    <t>کد نسبت با بیمه شده اصلی</t>
-  </si>
-  <si>
-    <t>0 = namoshakhas, 1 = persenel asli, 2 = hamsar, 3 = pesar, 4 = dokhtar, 5 = pedar, 6 = madar, 7 = sayer, 8 = baradar, 9 = khahar</t>
-  </si>
-  <si>
-    <t>0 = namoshkhas, 1 = takalof, 2 = gheyre takalof</t>
-  </si>
-  <si>
-    <t>کد وضعیت تکفل</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="14">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="2  Kamran"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +586,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,17 +646,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -187,9 +767,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -222,9 +802,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -403,104 +983,457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="111.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="6" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="12.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="9.140625" style="6"/>
+    <col min="24" max="24" width="15.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="7" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="7" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="7" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="J6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="X9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="X10" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="X11" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="X12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="X13" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="X14" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="X15" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="X16" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="24:24">
+      <c r="X17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="24:24">
+      <c r="X18" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="24:24">
+      <c r="X19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="24:24">
+      <c r="X20" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="24:24">
+      <c r="X21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="24:24">
+      <c r="X22" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="24:24">
+      <c r="X23" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="24:24">
+      <c r="X24" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="24:24">
+      <c r="X25" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="24:24">
+      <c r="X26" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="24:24">
+      <c r="X27" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="24:24">
+      <c r="X28" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="24:24">
+      <c r="X29" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="24:24">
+      <c r="X30" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="24:24">
+      <c r="X31" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8" xr:uid="{B460E220-4A3B-437D-911B-F05452F58A68}">
+      <formula1>$X$1:$X$31</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>